--- a/1_yeast_modeling/FPA/modeling/pathway_annotations.xlsx
+++ b/1_yeast_modeling/FPA/modeling/pathway_annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lix/workingGit/improvedFPA_final/1_yeast_modeling/FPA/modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7696ED-E3FB-FA4D-AD91-2380E3691C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FAF1E8-7168-1944-BB1E-35C9C6BD502D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="1940" windowWidth="35900" windowHeight="17300" activeTab="3" xr2:uid="{7C9A5640-632A-8744-BB19-6A5130ABCA3A}"/>
+    <workbookView xWindow="2500" yWindow="1940" windowWidth="35900" windowHeight="17300" activeTab="3" xr2:uid="{7C9A5640-632A-8744-BB19-6A5130ABCA3A}"/>
   </bookViews>
   <sheets>
     <sheet name="selected" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="719">
   <si>
     <t>rxn</t>
   </si>
@@ -2182,6 +2182,18 @@
   </si>
   <si>
     <t xml:space="preserve">H+ [endoplasmic reticulum membrane] + stearoyl-CoA [endoplasmic reticulum membrane] + oxygen [endoplasmic reticulum membrane] + NADH [endoplasmic reticulum membrane]  -&gt; 2 H2O [endoplasmic reticulum membrane] + NAD [endoplasmic reticulum membrane] + oleoyl-CoA [endoplasmic reticulum membrane] </t>
+  </si>
+  <si>
+    <t>transporter [inner]</t>
+  </si>
+  <si>
+    <t>ROS</t>
+  </si>
+  <si>
+    <t>transporter [exchange]</t>
+  </si>
+  <si>
+    <t>manual_pathway</t>
   </si>
 </sst>
 </file>
@@ -3246,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCF28D0-FA4F-2A43-9132-3839FD9E6C7D}">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5742,8 +5754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EA96FB-9700-D640-9F45-A82A7E5E828D}">
   <dimension ref="A1:C233"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8321,18 +8333,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A45F33-879A-4743-9A3D-7759E24C350A}">
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8348,8 +8362,11 @@
       <c r="E1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -8365,8 +8382,11 @@
       <c r="E2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -8382,8 +8402,11 @@
       <c r="E3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -8399,8 +8422,11 @@
       <c r="E4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -8416,8 +8442,11 @@
       <c r="E5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -8433,8 +8462,11 @@
       <c r="E6" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -8450,8 +8482,11 @@
       <c r="E7" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -8467,8 +8502,11 @@
       <c r="E8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -8484,8 +8522,11 @@
       <c r="E9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -8501,8 +8542,11 @@
       <c r="E10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -8518,8 +8562,11 @@
       <c r="E11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -8535,8 +8582,11 @@
       <c r="E12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -8552,8 +8602,11 @@
       <c r="E13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -8569,8 +8622,11 @@
       <c r="E14" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -8586,8 +8642,11 @@
       <c r="E15" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -8603,8 +8662,11 @@
       <c r="E16" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -8620,8 +8682,11 @@
       <c r="E17" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -8637,8 +8702,11 @@
       <c r="E18" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -8654,8 +8722,11 @@
       <c r="E19" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -8671,8 +8742,11 @@
       <c r="E20" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -8688,8 +8762,11 @@
       <c r="E21" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -8705,8 +8782,11 @@
       <c r="E22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -8722,8 +8802,11 @@
       <c r="E23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -8739,8 +8822,11 @@
       <c r="E24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -8756,8 +8842,11 @@
       <c r="E25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -8773,8 +8862,11 @@
       <c r="E26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -8790,8 +8882,11 @@
       <c r="E27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -8807,8 +8902,11 @@
       <c r="E28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -8824,8 +8922,11 @@
       <c r="E29" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -8841,8 +8942,11 @@
       <c r="E30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -8858,8 +8962,11 @@
       <c r="E31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -8875,8 +8982,11 @@
       <c r="E32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -8892,8 +9002,11 @@
       <c r="E33" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -8909,8 +9022,11 @@
       <c r="E34" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -8926,8 +9042,11 @@
       <c r="E35" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -8943,8 +9062,11 @@
       <c r="E36" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -8960,8 +9082,11 @@
       <c r="E37" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -8977,8 +9102,11 @@
       <c r="E38" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -8994,8 +9122,11 @@
       <c r="E39" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -9011,8 +9142,11 @@
       <c r="E40" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -9028,8 +9162,11 @@
       <c r="E41" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -9045,8 +9182,11 @@
       <c r="E42" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -9062,8 +9202,11 @@
       <c r="E43" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -9079,8 +9222,11 @@
       <c r="E44" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -9096,8 +9242,11 @@
       <c r="E45" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -9113,8 +9262,11 @@
       <c r="E46" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -9130,8 +9282,11 @@
       <c r="E47" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -9147,8 +9302,11 @@
       <c r="E48" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -9164,8 +9322,11 @@
       <c r="E49" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -9181,8 +9342,11 @@
       <c r="E50" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>116</v>
       </c>
@@ -9198,8 +9362,11 @@
       <c r="E51" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>117</v>
       </c>
@@ -9215,8 +9382,11 @@
       <c r="E52" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -9232,8 +9402,11 @@
       <c r="E53" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -9249,8 +9422,11 @@
       <c r="E54" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -9266,8 +9442,11 @@
       <c r="E55" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -9283,8 +9462,11 @@
       <c r="E56" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -9300,8 +9482,11 @@
       <c r="E57" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -9317,8 +9502,11 @@
       <c r="E58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>128</v>
       </c>
@@ -9334,8 +9522,11 @@
       <c r="E59" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -9351,8 +9542,11 @@
       <c r="E60" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -9368,8 +9562,11 @@
       <c r="E61" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -9385,8 +9582,11 @@
       <c r="E62" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -9402,8 +9602,11 @@
       <c r="E63" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -9419,8 +9622,11 @@
       <c r="E64" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -9436,8 +9642,11 @@
       <c r="E65" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>58</v>
       </c>
@@ -9453,8 +9662,11 @@
       <c r="E66" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -9470,8 +9682,11 @@
       <c r="E67" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -9487,8 +9702,11 @@
       <c r="E68" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -9504,8 +9722,11 @@
       <c r="E69" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -9521,8 +9742,11 @@
       <c r="E70" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -9538,8 +9762,11 @@
       <c r="E71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -9555,8 +9782,11 @@
       <c r="E72" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -9572,8 +9802,11 @@
       <c r="E73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -9589,8 +9822,11 @@
       <c r="E74" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>37</v>
       </c>
@@ -9606,8 +9842,11 @@
       <c r="E75" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -9623,8 +9862,11 @@
       <c r="E76" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>48</v>
       </c>
@@ -9640,8 +9882,11 @@
       <c r="E77" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -9657,8 +9902,11 @@
       <c r="E78" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -9674,8 +9922,11 @@
       <c r="E79" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -9691,8 +9942,11 @@
       <c r="E80" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -9708,8 +9962,11 @@
       <c r="E81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -9725,8 +9982,11 @@
       <c r="E82" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -9742,8 +10002,11 @@
       <c r="E83" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -9759,8 +10022,11 @@
       <c r="E84" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -9776,8 +10042,11 @@
       <c r="E85" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -9793,8 +10062,11 @@
       <c r="E86" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -9810,8 +10082,11 @@
       <c r="E87" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -9827,8 +10102,11 @@
       <c r="E88" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>111</v>
       </c>
@@ -9844,8 +10122,11 @@
       <c r="E89" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>120</v>
       </c>
@@ -9861,8 +10142,11 @@
       <c r="E90" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -9878,8 +10162,11 @@
       <c r="E91" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -9895,8 +10182,11 @@
       <c r="E92" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -9912,8 +10202,11 @@
       <c r="E93" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>89</v>
       </c>
@@ -9929,8 +10222,11 @@
       <c r="E94" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -9946,8 +10242,11 @@
       <c r="E95" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>141</v>
       </c>
@@ -9963,8 +10262,11 @@
       <c r="E96" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -9980,8 +10282,11 @@
       <c r="E97" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>55</v>
       </c>
@@ -9997,8 +10302,11 @@
       <c r="E98" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>52</v>
       </c>
@@ -10014,8 +10322,11 @@
       <c r="E99" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -10031,8 +10342,11 @@
       <c r="E100" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -10048,8 +10362,11 @@
       <c r="E101" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -10065,8 +10382,11 @@
       <c r="E102" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -10082,8 +10402,11 @@
       <c r="E103" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>86</v>
       </c>
@@ -10099,8 +10422,11 @@
       <c r="E104" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -10116,8 +10442,11 @@
       <c r="E105" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -10133,8 +10462,11 @@
       <c r="E106" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -10150,8 +10482,11 @@
       <c r="E107" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>66</v>
       </c>
@@ -10167,8 +10502,11 @@
       <c r="E108" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>126</v>
       </c>
@@ -10184,8 +10522,11 @@
       <c r="E109" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>87</v>
       </c>
@@ -10201,8 +10542,11 @@
       <c r="E110" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -10218,8 +10562,11 @@
       <c r="E111" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -10235,8 +10582,11 @@
       <c r="E112" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -10252,8 +10602,11 @@
       <c r="E113" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>54</v>
       </c>
@@ -10269,8 +10622,11 @@
       <c r="E114" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -10286,8 +10642,11 @@
       <c r="E115" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>98</v>
       </c>
@@ -10303,8 +10662,11 @@
       <c r="E116" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>99</v>
       </c>
@@ -10320,8 +10682,11 @@
       <c r="E117" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>91</v>
       </c>
@@ -10337,8 +10702,11 @@
       <c r="E118" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>243</v>
       </c>
@@ -10351,8 +10719,11 @@
       <c r="E119" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>244</v>
       </c>
@@ -10362,8 +10733,11 @@
       <c r="E120" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>176</v>
       </c>
@@ -10376,8 +10750,11 @@
       <c r="E121" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>177</v>
       </c>
@@ -10390,8 +10767,11 @@
       <c r="E122" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>192</v>
       </c>
@@ -10404,8 +10784,11 @@
       <c r="E123" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>193</v>
       </c>
@@ -10418,8 +10801,11 @@
       <c r="E124" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>194</v>
       </c>
@@ -10432,8 +10818,11 @@
       <c r="E125" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>208</v>
       </c>
@@ -10446,8 +10835,11 @@
       <c r="E126" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>209</v>
       </c>
@@ -10460,8 +10852,11 @@
       <c r="E127" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>210</v>
       </c>
@@ -10474,8 +10869,11 @@
       <c r="E128" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>211</v>
       </c>
@@ -10488,8 +10886,11 @@
       <c r="E129" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>212</v>
       </c>
@@ -10502,8 +10903,11 @@
       <c r="E130" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>213</v>
       </c>
@@ -10516,8 +10920,11 @@
       <c r="E131" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>214</v>
       </c>
@@ -10530,8 +10937,11 @@
       <c r="E132" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>215</v>
       </c>
@@ -10541,8 +10951,11 @@
       <c r="E133" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>216</v>
       </c>
@@ -10555,8 +10968,11 @@
       <c r="E134" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>217</v>
       </c>
@@ -10566,8 +10982,11 @@
       <c r="E135" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>218</v>
       </c>
@@ -10577,8 +10996,11 @@
       <c r="E136" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>219</v>
       </c>
@@ -10591,8 +11013,11 @@
       <c r="E137" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>220</v>
       </c>
@@ -10602,8 +11027,11 @@
       <c r="E138" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>221</v>
       </c>
@@ -10613,8 +11041,11 @@
       <c r="E139" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>222</v>
       </c>
@@ -10624,8 +11055,11 @@
       <c r="E140" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>223</v>
       </c>
@@ -10635,8 +11069,11 @@
       <c r="E141" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>224</v>
       </c>
@@ -10646,8 +11083,11 @@
       <c r="E142" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>226</v>
       </c>
@@ -10660,8 +11100,11 @@
       <c r="E143" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>231</v>
       </c>
@@ -10671,8 +11114,11 @@
       <c r="E144" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>232</v>
       </c>
@@ -10682,8 +11128,11 @@
       <c r="E145" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>233</v>
       </c>
@@ -10693,8 +11142,11 @@
       <c r="E146" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>234</v>
       </c>
@@ -10704,8 +11156,11 @@
       <c r="E147" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>235</v>
       </c>
@@ -10718,8 +11173,11 @@
       <c r="E148" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>236</v>
       </c>
@@ -10729,8 +11187,11 @@
       <c r="E149" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>237</v>
       </c>
@@ -10740,8 +11201,11 @@
       <c r="E150" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>238</v>
       </c>
@@ -10751,8 +11215,11 @@
       <c r="E151" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>239</v>
       </c>
@@ -10762,8 +11229,11 @@
       <c r="E152" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>240</v>
       </c>
@@ -10773,8 +11243,11 @@
       <c r="E153" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>241</v>
       </c>
@@ -10784,8 +11257,11 @@
       <c r="E154" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>139</v>
       </c>
@@ -10801,8 +11277,11 @@
       <c r="E155" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>142</v>
       </c>
@@ -10818,8 +11297,11 @@
       <c r="E156" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>143</v>
       </c>
@@ -10835,8 +11317,11 @@
       <c r="E157" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>163</v>
       </c>
@@ -10852,8 +11337,11 @@
       <c r="E158" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>181</v>
       </c>
@@ -10869,8 +11357,11 @@
       <c r="E159" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>182</v>
       </c>
@@ -10886,8 +11377,11 @@
       <c r="E160" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>184</v>
       </c>
@@ -10903,8 +11397,11 @@
       <c r="E161" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>185</v>
       </c>
@@ -10920,8 +11417,11 @@
       <c r="E162" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>191</v>
       </c>
@@ -10937,8 +11437,11 @@
       <c r="E163" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>197</v>
       </c>
@@ -10954,8 +11457,11 @@
       <c r="E164" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>225</v>
       </c>
@@ -10971,8 +11477,11 @@
       <c r="E165" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>149</v>
       </c>
@@ -10988,8 +11497,11 @@
       <c r="E166" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>150</v>
       </c>
@@ -11005,8 +11517,11 @@
       <c r="E167" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>159</v>
       </c>
@@ -11022,8 +11537,11 @@
       <c r="E168" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -11039,8 +11557,11 @@
       <c r="E169" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -11056,8 +11577,11 @@
       <c r="E170" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>136</v>
       </c>
@@ -11073,8 +11597,11 @@
       <c r="E171" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>160</v>
       </c>
@@ -11090,8 +11617,11 @@
       <c r="E172" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>186</v>
       </c>
@@ -11107,8 +11637,11 @@
       <c r="E173" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>195</v>
       </c>
@@ -11124,8 +11657,11 @@
       <c r="E174" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>196</v>
       </c>
@@ -11141,8 +11677,11 @@
       <c r="E175" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>203</v>
       </c>
@@ -11158,8 +11697,11 @@
       <c r="E176" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>204</v>
       </c>
@@ -11175,8 +11717,11 @@
       <c r="E177" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>207</v>
       </c>
@@ -11192,8 +11737,11 @@
       <c r="E178" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>229</v>
       </c>
@@ -11209,8 +11757,11 @@
       <c r="E179" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>230</v>
       </c>
@@ -11226,8 +11777,11 @@
       <c r="E180" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>147</v>
       </c>
@@ -11243,8 +11797,11 @@
       <c r="E181" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>168</v>
       </c>
@@ -11260,8 +11817,11 @@
       <c r="E182" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F182" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>162</v>
       </c>
@@ -11277,8 +11837,11 @@
       <c r="E183" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F183" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>140</v>
       </c>
@@ -11294,8 +11857,11 @@
       <c r="E184" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>178</v>
       </c>
@@ -11311,8 +11877,11 @@
       <c r="E185" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>179</v>
       </c>
@@ -11328,8 +11897,11 @@
       <c r="E186" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>180</v>
       </c>
@@ -11345,8 +11917,11 @@
       <c r="E187" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>198</v>
       </c>
@@ -11362,8 +11937,11 @@
       <c r="E188" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F188" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>148</v>
       </c>
@@ -11379,8 +11957,11 @@
       <c r="E189" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F189" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>151</v>
       </c>
@@ -11396,8 +11977,11 @@
       <c r="E190" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F190" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>157</v>
       </c>
@@ -11413,8 +11997,11 @@
       <c r="E191" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>158</v>
       </c>
@@ -11430,8 +12017,11 @@
       <c r="E192" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>202</v>
       </c>
@@ -11447,8 +12037,11 @@
       <c r="E193" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -11464,8 +12057,11 @@
       <c r="E194" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>146</v>
       </c>
@@ -11481,8 +12077,11 @@
       <c r="E195" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>152</v>
       </c>
@@ -11498,8 +12097,11 @@
       <c r="E196" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>153</v>
       </c>
@@ -11515,8 +12117,11 @@
       <c r="E197" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>165</v>
       </c>
@@ -11532,8 +12137,11 @@
       <c r="E198" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>172</v>
       </c>
@@ -11549,8 +12157,11 @@
       <c r="E199" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>187</v>
       </c>
@@ -11566,8 +12177,11 @@
       <c r="E200" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>189</v>
       </c>
@@ -11583,8 +12197,11 @@
       <c r="E201" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>190</v>
       </c>
@@ -11600,8 +12217,11 @@
       <c r="E202" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -11617,8 +12237,11 @@
       <c r="E203" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -11634,8 +12257,11 @@
       <c r="E204" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>133</v>
       </c>
@@ -11651,8 +12277,11 @@
       <c r="E205" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>127</v>
       </c>
@@ -11668,8 +12297,11 @@
       <c r="E206" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -11685,8 +12317,11 @@
       <c r="E207" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>170</v>
       </c>
@@ -11702,8 +12337,11 @@
       <c r="E208" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>174</v>
       </c>
@@ -11719,8 +12357,11 @@
       <c r="E209" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>130</v>
       </c>
@@ -11736,8 +12377,11 @@
       <c r="E210" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>131</v>
       </c>
@@ -11753,8 +12397,11 @@
       <c r="E211" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>132</v>
       </c>
@@ -11770,8 +12417,11 @@
       <c r="E212" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>134</v>
       </c>
@@ -11787,8 +12437,11 @@
       <c r="E213" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F213" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>135</v>
       </c>
@@ -11804,8 +12457,11 @@
       <c r="E214" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>137</v>
       </c>
@@ -11821,8 +12477,11 @@
       <c r="E215" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>138</v>
       </c>
@@ -11838,8 +12497,11 @@
       <c r="E216" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>155</v>
       </c>
@@ -11855,8 +12517,11 @@
       <c r="E217" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F217" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>156</v>
       </c>
@@ -11872,8 +12537,11 @@
       <c r="E218" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>171</v>
       </c>
@@ -11889,8 +12557,11 @@
       <c r="E219" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F219" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>144</v>
       </c>
@@ -11906,8 +12577,11 @@
       <c r="E220" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>145</v>
       </c>
@@ -11923,8 +12597,11 @@
       <c r="E221" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F221" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>167</v>
       </c>
@@ -11940,8 +12617,11 @@
       <c r="E222" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>188</v>
       </c>
@@ -11957,8 +12637,11 @@
       <c r="E223" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>200</v>
       </c>
@@ -11974,8 +12657,11 @@
       <c r="E224" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>164</v>
       </c>
@@ -11991,8 +12677,11 @@
       <c r="E225" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F225" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>166</v>
       </c>
@@ -12008,8 +12697,11 @@
       <c r="E226" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>173</v>
       </c>
@@ -12025,8 +12717,11 @@
       <c r="E227" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>242</v>
       </c>
@@ -12042,8 +12737,11 @@
       <c r="E228" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>154</v>
       </c>
@@ -12059,8 +12757,11 @@
       <c r="E229" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F229" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>183</v>
       </c>
@@ -12076,8 +12777,11 @@
       <c r="E230" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F230" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>199</v>
       </c>
@@ -12093,8 +12797,11 @@
       <c r="E231" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F231" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>227</v>
       </c>
@@ -12110,8 +12817,11 @@
       <c r="E232" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F232" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>228</v>
       </c>
@@ -12125,6 +12835,9 @@
         <v>713</v>
       </c>
       <c r="E233" t="s">
+        <v>62</v>
+      </c>
+      <c r="F233" t="s">
         <v>62</v>
       </c>
     </row>

--- a/1_yeast_modeling/FPA/modeling/pathway_annotations.xlsx
+++ b/1_yeast_modeling/FPA/modeling/pathway_annotations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lix/workingGit/improvedFPA_final/1_yeast_modeling/FPA/modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FAF1E8-7168-1944-BB1E-35C9C6BD502D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A47972-9759-8248-A79F-603A7ABB9140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1940" windowWidth="35900" windowHeight="17300" activeTab="3" xr2:uid="{7C9A5640-632A-8744-BB19-6A5130ABCA3A}"/>
+    <workbookView xWindow="2500" yWindow="1940" windowWidth="35900" windowHeight="17300" xr2:uid="{7C9A5640-632A-8744-BB19-6A5130ABCA3A}"/>
   </bookViews>
   <sheets>
     <sheet name="selected" sheetId="1" r:id="rId1"/>
@@ -792,9 +792,6 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Threonine, methionine and cysteine synthesis</t>
-  </si>
-  <si>
     <t>Mannan synthesis</t>
   </si>
   <si>
@@ -2194,6 +2191,9 @@
   </si>
   <si>
     <t>manual_pathway</t>
+  </si>
+  <si>
+    <t>Threonine, methionine and cysteine biosynthesis</t>
   </si>
 </sst>
 </file>
@@ -2611,7 +2611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE538260-2E0D-E846-AC9A-0098203816C7}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2625,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D1" t="s">
         <v>245</v>
@@ -3007,7 +3007,7 @@
         <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C25">
         <f>VLOOKUP(A25,pathway_info!A:C,3,0)</f>
@@ -3023,7 +3023,7 @@
         <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C26">
         <f>VLOOKUP(A26,pathway_info!A:C,3,0)</f>
@@ -3039,7 +3039,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27">
         <f>VLOOKUP(A27,pathway_info!A:C,3,0)</f>
@@ -3055,7 +3055,7 @@
         <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28">
         <f>VLOOKUP(A28,pathway_info!A:C,3,0)</f>
@@ -3071,7 +3071,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C29">
         <f>VLOOKUP(A29,pathway_info!A:C,3,0)</f>
@@ -3258,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCF28D0-FA4F-2A43-9132-3839FD9E6C7D}">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3273,19 +3273,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>245</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3293,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -3314,7 +3314,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3335,7 +3335,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -3356,7 +3356,7 @@
         <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -3366,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -3377,7 +3377,7 @@
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -3387,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -3398,7 +3398,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -3419,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -3440,7 +3440,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -3461,7 +3461,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -3482,7 +3482,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -3503,7 +3503,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -3524,7 +3524,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -3545,7 +3545,7 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -3566,7 +3566,7 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -3587,7 +3587,7 @@
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -3608,7 +3608,7 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
         <v>246</v>
@@ -3629,7 +3629,7 @@
         <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C18" t="s">
         <v>246</v>
@@ -3650,7 +3650,7 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C19" t="s">
         <v>246</v>
@@ -3671,7 +3671,7 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C20" t="s">
         <v>246</v>
@@ -3692,7 +3692,7 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C21" t="s">
         <v>246</v>
@@ -3713,7 +3713,7 @@
         <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C22" t="s">
         <v>246</v>
@@ -3734,7 +3734,7 @@
         <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C23" t="s">
         <v>246</v>
@@ -3755,7 +3755,7 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C24" t="s">
         <v>246</v>
@@ -3776,7 +3776,7 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C25" t="s">
         <v>246</v>
@@ -3797,7 +3797,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -3818,7 +3818,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -3839,7 +3839,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -3860,7 +3860,7 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -3881,7 +3881,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -3902,7 +3902,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -3923,7 +3923,7 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -3944,7 +3944,7 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -3965,7 +3965,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -3986,7 +3986,7 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -4007,7 +4007,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -4028,7 +4028,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -4049,7 +4049,7 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -4070,7 +4070,7 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
@@ -4091,7 +4091,7 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -4112,7 +4112,7 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
@@ -4133,7 +4133,7 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
@@ -4154,7 +4154,7 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" t="s">
         <v>25</v>
@@ -4175,7 +4175,7 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
@@ -4196,7 +4196,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -4217,7 +4217,7 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
@@ -4238,7 +4238,7 @@
         <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C47" t="s">
         <v>25</v>
@@ -4259,7 +4259,7 @@
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C48" t="s">
         <v>25</v>
@@ -4280,7 +4280,7 @@
         <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C49" t="s">
         <v>72</v>
@@ -4301,7 +4301,7 @@
         <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C50" t="s">
         <v>72</v>
@@ -4322,7 +4322,7 @@
         <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C51" t="s">
         <v>72</v>
@@ -4343,7 +4343,7 @@
         <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C52" t="s">
         <v>72</v>
@@ -4364,20 +4364,20 @@
         <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C53" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="D53">
         <f>VLOOKUP(A53,pathway_info!A:C,3,0)</f>
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4385,20 +4385,20 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C54" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="D54">
         <f>VLOOKUP(A54,pathway_info!A:C,3,0)</f>
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F54" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4406,20 +4406,20 @@
         <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C55" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="D55">
         <f>VLOOKUP(A55,pathway_info!A:C,3,0)</f>
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4427,20 +4427,20 @@
         <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C56" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="D56">
         <f>VLOOKUP(A56,pathway_info!A:C,3,0)</f>
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4448,20 +4448,20 @@
         <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="D57">
         <f>VLOOKUP(A57,pathway_info!A:C,3,0)</f>
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F57" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4469,20 +4469,20 @@
         <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="D58">
         <f>VLOOKUP(A58,pathway_info!A:C,3,0)</f>
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F58" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4490,20 +4490,20 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D59">
         <f>VLOOKUP(A59,pathway_info!A:C,3,0)</f>
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4511,20 +4511,20 @@
         <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D60">
         <f>VLOOKUP(A60,pathway_info!A:C,3,0)</f>
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F60" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4532,20 +4532,20 @@
         <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D61">
         <f>VLOOKUP(A61,pathway_info!A:C,3,0)</f>
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4553,20 +4553,20 @@
         <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D62">
         <f>VLOOKUP(A62,pathway_info!A:C,3,0)</f>
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F62" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4574,20 +4574,20 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D63">
         <f>VLOOKUP(A63,pathway_info!A:C,3,0)</f>
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F63" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4595,10 +4595,10 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D64" t="str">
         <f>VLOOKUP(A64,pathway_info!A:C,3,0)</f>
@@ -4608,7 +4608,7 @@
         <v>248</v>
       </c>
       <c r="F64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4616,10 +4616,10 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C65" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D65" t="str">
         <f>VLOOKUP(A65,pathway_info!A:C,3,0)</f>
@@ -4629,7 +4629,7 @@
         <v>248</v>
       </c>
       <c r="F65" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4637,10 +4637,10 @@
         <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D66" t="str">
         <f>VLOOKUP(A66,pathway_info!A:C,3,0)</f>
@@ -4650,7 +4650,7 @@
         <v>248</v>
       </c>
       <c r="F66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4658,10 +4658,10 @@
         <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C67" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D67" t="str">
         <f>VLOOKUP(A67,pathway_info!A:C,3,0)</f>
@@ -4671,7 +4671,7 @@
         <v>248</v>
       </c>
       <c r="F67" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4679,7 +4679,7 @@
         <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C68" t="s">
         <v>250</v>
@@ -4692,7 +4692,7 @@
         <v>248</v>
       </c>
       <c r="F68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4700,7 +4700,7 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C69" t="s">
         <v>250</v>
@@ -4713,7 +4713,7 @@
         <v>248</v>
       </c>
       <c r="F69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4721,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C70" t="s">
         <v>250</v>
@@ -4734,7 +4734,7 @@
         <v>248</v>
       </c>
       <c r="F70" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4742,7 +4742,7 @@
         <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C71" t="s">
         <v>250</v>
@@ -4763,7 +4763,7 @@
         <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C72" t="s">
         <v>250</v>
@@ -4773,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F72" t="s">
         <v>93</v>
@@ -4784,7 +4784,7 @@
         <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C73" t="s">
         <v>250</v>
@@ -4794,10 +4794,10 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F73" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4805,7 +4805,7 @@
         <v>127</v>
       </c>
       <c r="B74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C74" t="s">
         <v>250</v>
@@ -4818,7 +4818,7 @@
         <v>248</v>
       </c>
       <c r="F74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4826,7 +4826,7 @@
         <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C75" t="s">
         <v>250</v>
@@ -4839,7 +4839,7 @@
         <v>248</v>
       </c>
       <c r="F75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4847,7 +4847,7 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
         <v>250</v>
@@ -4857,10 +4857,10 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F76" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4868,7 +4868,7 @@
         <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C77" t="s">
         <v>250</v>
@@ -4889,7 +4889,7 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C78" t="s">
         <v>250</v>
@@ -4902,7 +4902,7 @@
         <v>247</v>
       </c>
       <c r="F78" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4910,7 +4910,7 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C79" t="s">
         <v>250</v>
@@ -4920,10 +4920,10 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F79" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4931,7 +4931,7 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C80" t="s">
         <v>250</v>
@@ -4944,7 +4944,7 @@
         <v>248</v>
       </c>
       <c r="F80" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4952,7 +4952,7 @@
         <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C81" t="s">
         <v>250</v>
@@ -4965,7 +4965,7 @@
         <v>248</v>
       </c>
       <c r="F81" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4973,7 +4973,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C82" t="s">
         <v>46</v>
@@ -4994,7 +4994,7 @@
         <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C83" t="s">
         <v>46</v>
@@ -5015,7 +5015,7 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C84" t="s">
         <v>46</v>
@@ -5036,7 +5036,7 @@
         <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C85" t="s">
         <v>46</v>
@@ -5057,7 +5057,7 @@
         <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C86" t="s">
         <v>46</v>
@@ -5078,7 +5078,7 @@
         <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C87" t="s">
         <v>46</v>
@@ -5099,7 +5099,7 @@
         <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C88" t="s">
         <v>46</v>
@@ -5120,7 +5120,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C89" t="s">
         <v>46</v>
@@ -5141,7 +5141,7 @@
         <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C90" t="s">
         <v>46</v>
@@ -5162,7 +5162,7 @@
         <v>112</v>
       </c>
       <c r="B91" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C91" t="s">
         <v>46</v>
@@ -5183,7 +5183,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C92" t="s">
         <v>46</v>
@@ -5204,7 +5204,7 @@
         <v>55</v>
       </c>
       <c r="B93" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C93" t="s">
         <v>53</v>
@@ -5225,7 +5225,7 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C94" t="s">
         <v>53</v>
@@ -5246,7 +5246,7 @@
         <v>52</v>
       </c>
       <c r="B95" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C95" t="s">
         <v>53</v>
@@ -5267,10 +5267,10 @@
         <v>118</v>
       </c>
       <c r="B96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C96" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D96" t="str">
         <f>VLOOKUP(A96,pathway_info!A:C,3,0)</f>
@@ -5280,7 +5280,7 @@
         <v>248</v>
       </c>
       <c r="F96" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -5288,10 +5288,10 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C97" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D97" t="str">
         <f>VLOOKUP(A97,pathway_info!A:C,3,0)</f>
@@ -5301,7 +5301,7 @@
         <v>248</v>
       </c>
       <c r="F97" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -5309,10 +5309,10 @@
         <v>126</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C98" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D98" t="str">
         <f>VLOOKUP(A98,pathway_info!A:C,3,0)</f>
@@ -5322,7 +5322,7 @@
         <v>248</v>
       </c>
       <c r="F98" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -5330,10 +5330,10 @@
         <v>123</v>
       </c>
       <c r="B99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C99" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D99" t="str">
         <f>VLOOKUP(A99,pathway_info!A:C,3,0)</f>
@@ -5343,7 +5343,7 @@
         <v>248</v>
       </c>
       <c r="F99" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -5351,10 +5351,10 @@
         <v>119</v>
       </c>
       <c r="B100" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C100" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D100" t="str">
         <f>VLOOKUP(A100,pathway_info!A:C,3,0)</f>
@@ -5364,7 +5364,7 @@
         <v>248</v>
       </c>
       <c r="F100" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -5372,10 +5372,10 @@
         <v>66</v>
       </c>
       <c r="B101" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C101" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D101" t="str">
         <f>VLOOKUP(A101,pathway_info!A:C,3,0)</f>
@@ -5385,7 +5385,7 @@
         <v>248</v>
       </c>
       <c r="F101" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -5393,10 +5393,10 @@
         <v>86</v>
       </c>
       <c r="B102" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C102" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D102" t="str">
         <f>VLOOKUP(A102,pathway_info!A:C,3,0)</f>
@@ -5406,7 +5406,7 @@
         <v>248</v>
       </c>
       <c r="F102" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -5414,10 +5414,10 @@
         <v>85</v>
       </c>
       <c r="B103" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C103" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D103" t="str">
         <f>VLOOKUP(A103,pathway_info!A:C,3,0)</f>
@@ -5427,7 +5427,7 @@
         <v>248</v>
       </c>
       <c r="F103" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5435,10 +5435,10 @@
         <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C104" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D104" t="str">
         <f>VLOOKUP(A104,pathway_info!A:C,3,0)</f>
@@ -5448,7 +5448,7 @@
         <v>248</v>
       </c>
       <c r="F104" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -5456,7 +5456,7 @@
         <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C105" t="s">
         <v>249</v>
@@ -5469,7 +5469,7 @@
         <v>249</v>
       </c>
       <c r="F105" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5477,7 +5477,7 @@
         <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C106" t="s">
         <v>249</v>
@@ -5490,7 +5490,7 @@
         <v>249</v>
       </c>
       <c r="F106" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5498,7 +5498,7 @@
         <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C107" t="s">
         <v>249</v>
@@ -5511,7 +5511,7 @@
         <v>249</v>
       </c>
       <c r="F107" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5519,7 +5519,7 @@
         <v>92</v>
       </c>
       <c r="B108" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C108" t="s">
         <v>93</v>
@@ -5540,7 +5540,7 @@
         <v>94</v>
       </c>
       <c r="B109" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C109" t="s">
         <v>93</v>
@@ -5561,7 +5561,7 @@
         <v>95</v>
       </c>
       <c r="B110" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C110" t="s">
         <v>93</v>
@@ -5582,7 +5582,7 @@
         <v>96</v>
       </c>
       <c r="B111" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C111" t="s">
         <v>93</v>
@@ -5603,7 +5603,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C112" t="s">
         <v>93</v>
@@ -5624,7 +5624,7 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C113" t="s">
         <v>93</v>
@@ -5645,7 +5645,7 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C114" t="s">
         <v>93</v>
@@ -5666,7 +5666,7 @@
         <v>87</v>
       </c>
       <c r="B115" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C115" t="s">
         <v>93</v>
@@ -5679,7 +5679,7 @@
         <v>93</v>
       </c>
       <c r="F115" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5687,7 +5687,7 @@
         <v>61</v>
       </c>
       <c r="B116" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C116" t="s">
         <v>62</v>
@@ -5708,7 +5708,7 @@
         <v>64</v>
       </c>
       <c r="B117" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C117" t="s">
         <v>62</v>
@@ -5729,7 +5729,7 @@
         <v>63</v>
       </c>
       <c r="B118" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C118" t="s">
         <v>62</v>
@@ -5754,7 +5754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EA96FB-9700-D640-9F45-A82A7E5E828D}">
   <dimension ref="A1:C233"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -5771,7 +5771,7 @@
         <v>245</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5779,7 +5779,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -5790,7 +5790,7 @@
         <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -5801,7 +5801,7 @@
         <v>162</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -5812,7 +5812,7 @@
         <v>146</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -6560,7 +6560,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6571,7 +6571,7 @@
         <v>122</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C74" s="7">
         <v>2</v>
@@ -6582,7 +6582,7 @@
         <v>50</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C75" s="7">
         <v>3</v>
@@ -6593,7 +6593,7 @@
         <v>125</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C76" s="7">
         <v>4</v>
@@ -6604,7 +6604,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C77" s="7">
         <v>5</v>
@@ -6802,7 +6802,7 @@
         <v>116</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         <v>117</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="C96" s="7">
         <v>2</v>
@@ -6824,7 +6824,7 @@
         <v>44</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="C97" s="7">
         <v>3</v>
@@ -6835,7 +6835,7 @@
         <v>165</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="C98" s="7">
         <v>4</v>
@@ -6846,7 +6846,7 @@
         <v>79</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="C99" s="7">
         <v>4</v>
@@ -6857,7 +6857,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="C100" s="7">
         <v>5</v>
@@ -6868,7 +6868,7 @@
         <v>201</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="C101" s="7">
         <v>5</v>
@@ -6879,7 +6879,7 @@
         <v>43</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="C102" s="7">
         <v>6</v>
@@ -6890,7 +6890,7 @@
         <v>152</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="C103" s="7">
         <v>6</v>
@@ -6901,7 +6901,7 @@
         <v>153</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="C104" s="7">
         <v>7</v>
@@ -6912,7 +6912,7 @@
         <v>198</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C105" s="3">
         <v>0</v>
@@ -6923,7 +6923,7 @@
         <v>141</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -6934,7 +6934,7 @@
         <v>183</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C107" s="3">
         <v>2</v>
@@ -6945,7 +6945,7 @@
         <v>199</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C108" s="3">
         <v>3</v>
@@ -6956,7 +6956,7 @@
         <v>6</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C109" s="3">
         <v>3</v>
@@ -6967,7 +6967,7 @@
         <v>138</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C110" s="8">
         <v>1</v>
@@ -6978,7 +6978,7 @@
         <v>137</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C111" s="8">
         <v>2</v>
@@ -6989,7 +6989,7 @@
         <v>155</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C112" s="8">
         <v>3</v>
@@ -7000,7 +7000,7 @@
         <v>132</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C113" s="8">
         <v>4</v>
@@ -7011,7 +7011,7 @@
         <v>91</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C114" s="8">
         <v>4</v>
@@ -7022,7 +7022,7 @@
         <v>216</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C115" s="8">
         <v>5</v>
@@ -7033,7 +7033,7 @@
         <v>131</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C116" s="8">
         <v>6</v>
@@ -7044,7 +7044,7 @@
         <v>134</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C117" s="8">
         <v>7</v>
@@ -7055,7 +7055,7 @@
         <v>135</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C118" s="8">
         <v>8</v>
@@ -7066,7 +7066,7 @@
         <v>133</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C119" s="8">
         <v>9</v>
@@ -7077,7 +7077,7 @@
         <v>174</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C120" s="8">
         <v>10</v>
@@ -7088,7 +7088,7 @@
         <v>172</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C121" s="2">
         <v>-1</v>
@@ -7099,7 +7099,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>130</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C123" s="2">
         <v>1</v>
@@ -7121,7 +7121,7 @@
         <v>171</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C124" s="2">
         <v>2</v>
@@ -7132,7 +7132,7 @@
         <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C125" s="2">
         <v>3</v>
@@ -7143,7 +7143,7 @@
         <v>217</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C126" s="2">
         <v>4</v>
@@ -7154,7 +7154,7 @@
         <v>170</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C127" s="2">
         <v>5</v>
@@ -7165,7 +7165,7 @@
         <v>187</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C128" s="6">
         <v>1</v>
@@ -7176,7 +7176,7 @@
         <v>190</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C129" s="6">
         <v>2</v>
@@ -7187,7 +7187,7 @@
         <v>189</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C130" s="6">
         <v>3</v>
@@ -7715,7 +7715,7 @@
         <v>111</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C178" s="8">
         <v>2</v>
@@ -7726,7 +7726,7 @@
         <v>148</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C179" s="8">
         <v>1</v>
@@ -7737,7 +7737,7 @@
         <v>120</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C180" s="8">
         <v>3</v>
@@ -8335,8 +8335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A45F33-879A-4743-9A3D-7759E24C350A}">
   <dimension ref="A1:F233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8351,19 +8351,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1" t="s">
         <v>394</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>395</v>
       </c>
-      <c r="E1" t="s">
-        <v>396</v>
-      </c>
       <c r="F1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -8371,13 +8371,13 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" t="s">
         <v>397</v>
-      </c>
-      <c r="D2" t="s">
-        <v>398</v>
       </c>
       <c r="E2" t="s">
         <v>93</v>
@@ -8391,13 +8391,13 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E3" t="s">
         <v>93</v>
@@ -8411,13 +8411,13 @@
         <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E4" t="s">
         <v>93</v>
@@ -8431,13 +8431,13 @@
         <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E5" t="s">
         <v>93</v>
@@ -8451,19 +8451,19 @@
         <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -8471,19 +8471,19 @@
         <v>161</v>
       </c>
       <c r="B7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" t="s">
-        <v>404</v>
-      </c>
       <c r="D7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -8491,13 +8491,13 @@
         <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" t="s">
         <v>397</v>
-      </c>
-      <c r="D8" t="s">
-        <v>398</v>
       </c>
       <c r="E8" t="s">
         <v>93</v>
@@ -8511,13 +8511,13 @@
         <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E9" t="s">
         <v>93</v>
@@ -8531,13 +8531,13 @@
         <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E10" t="s">
         <v>93</v>
@@ -8551,13 +8551,13 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" t="s">
         <v>407</v>
-      </c>
-      <c r="D11" t="s">
-        <v>408</v>
       </c>
       <c r="E11" t="s">
         <v>62</v>
@@ -8571,13 +8571,13 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E12" t="s">
         <v>62</v>
@@ -8591,13 +8591,13 @@
         <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E13" t="s">
         <v>62</v>
@@ -8611,19 +8611,19 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D14" t="s">
         <v>410</v>
       </c>
-      <c r="D14" t="s">
-        <v>411</v>
-      </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -8631,19 +8631,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -8651,19 +8651,19 @@
         <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -8671,13 +8671,13 @@
         <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C17" t="s">
+        <v>413</v>
+      </c>
+      <c r="D17" t="s">
         <v>414</v>
-      </c>
-      <c r="D17" t="s">
-        <v>415</v>
       </c>
       <c r="E17" t="s">
         <v>249</v>
@@ -8691,19 +8691,19 @@
         <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" t="s">
         <v>416</v>
       </c>
-      <c r="D18" t="s">
-        <v>417</v>
-      </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -8711,19 +8711,19 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C19" t="s">
+        <v>417</v>
+      </c>
+      <c r="D19" t="s">
         <v>418</v>
       </c>
-      <c r="D19" t="s">
-        <v>419</v>
-      </c>
       <c r="E19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -8731,19 +8731,19 @@
         <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C20" t="s">
+        <v>419</v>
+      </c>
+      <c r="D20" t="s">
         <v>420</v>
       </c>
-      <c r="D20" t="s">
-        <v>421</v>
-      </c>
       <c r="E20" t="s">
         <v>248</v>
       </c>
       <c r="F20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -8751,19 +8751,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" t="s">
         <v>422</v>
       </c>
-      <c r="D21" t="s">
-        <v>423</v>
-      </c>
       <c r="E21" t="s">
         <v>248</v>
       </c>
       <c r="F21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -8771,13 +8771,13 @@
         <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C22" t="s">
+        <v>423</v>
+      </c>
+      <c r="D22" t="s">
         <v>424</v>
-      </c>
-      <c r="D22" t="s">
-        <v>425</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
@@ -8791,13 +8791,13 @@
         <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>
@@ -8811,13 +8811,13 @@
         <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
@@ -8831,13 +8831,13 @@
         <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
@@ -8851,13 +8851,13 @@
         <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E26" t="s">
         <v>46</v>
@@ -8871,13 +8871,13 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E27" t="s">
         <v>46</v>
@@ -8891,13 +8891,13 @@
         <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E28" t="s">
         <v>46</v>
@@ -8911,13 +8911,13 @@
         <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E29" t="s">
         <v>46</v>
@@ -8931,13 +8931,13 @@
         <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E30" t="s">
         <v>46</v>
@@ -8951,13 +8951,13 @@
         <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E31" t="s">
         <v>46</v>
@@ -8971,13 +8971,13 @@
         <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E32" t="s">
         <v>46</v>
@@ -8991,13 +8991,13 @@
         <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C33" t="s">
+        <v>435</v>
+      </c>
+      <c r="D33" t="s">
         <v>436</v>
-      </c>
-      <c r="D33" t="s">
-        <v>437</v>
       </c>
       <c r="E33" t="s">
         <v>246</v>
@@ -9011,13 +9011,13 @@
         <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E34" t="s">
         <v>246</v>
@@ -9031,13 +9031,13 @@
         <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E35" t="s">
         <v>246</v>
@@ -9051,13 +9051,13 @@
         <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E36" t="s">
         <v>246</v>
@@ -9071,13 +9071,13 @@
         <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E37" t="s">
         <v>246</v>
@@ -9091,13 +9091,13 @@
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E38" t="s">
         <v>246</v>
@@ -9111,13 +9111,13 @@
         <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E39" t="s">
         <v>246</v>
@@ -9131,13 +9131,13 @@
         <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E40" t="s">
         <v>246</v>
@@ -9151,13 +9151,13 @@
         <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E41" t="s">
         <v>246</v>
@@ -9171,13 +9171,13 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C42" t="s">
+        <v>443</v>
+      </c>
+      <c r="D42" t="s">
         <v>444</v>
-      </c>
-      <c r="D42" t="s">
-        <v>445</v>
       </c>
       <c r="E42" t="s">
         <v>25</v>
@@ -9191,13 +9191,13 @@
         <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C43" t="s">
+        <v>445</v>
+      </c>
+      <c r="D43" t="s">
         <v>446</v>
-      </c>
-      <c r="D43" t="s">
-        <v>447</v>
       </c>
       <c r="E43" t="s">
         <v>25</v>
@@ -9211,13 +9211,13 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D44" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E44" t="s">
         <v>25</v>
@@ -9231,13 +9231,13 @@
         <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E45" t="s">
         <v>25</v>
@@ -9251,13 +9251,13 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D46" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E46" t="s">
         <v>25</v>
@@ -9271,13 +9271,13 @@
         <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C47" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D47" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E47" t="s">
         <v>25</v>
@@ -9291,13 +9291,13 @@
         <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D48" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E48" t="s">
         <v>25</v>
@@ -9311,13 +9311,13 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E49" t="s">
         <v>25</v>
@@ -9331,19 +9331,19 @@
         <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C50" t="s">
+        <v>453</v>
+      </c>
+      <c r="D50" t="s">
         <v>454</v>
       </c>
-      <c r="D50" t="s">
-        <v>455</v>
-      </c>
       <c r="E50" t="s">
         <v>248</v>
       </c>
       <c r="F50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -9351,19 +9351,19 @@
         <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C51" t="s">
+        <v>455</v>
+      </c>
+      <c r="D51" t="s">
         <v>456</v>
       </c>
-      <c r="D51" t="s">
-        <v>457</v>
-      </c>
       <c r="E51" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F51" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -9371,19 +9371,19 @@
         <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C52" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E52" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F52" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -9391,19 +9391,19 @@
         <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C53" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D53" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E53" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F53" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -9411,19 +9411,19 @@
         <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C54" t="s">
+        <v>459</v>
+      </c>
+      <c r="D54" t="s">
         <v>460</v>
       </c>
-      <c r="D54" t="s">
-        <v>461</v>
-      </c>
       <c r="E54" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F54" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -9431,19 +9431,19 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C55" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D55" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E55" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F55" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -9451,19 +9451,19 @@
         <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C56" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D56" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E56" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F56" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -9471,7 +9471,7 @@
         <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C58" t="s">
+        <v>463</v>
+      </c>
+      <c r="D58" t="s">
         <v>464</v>
-      </c>
-      <c r="D58" t="s">
-        <v>465</v>
       </c>
       <c r="E58" t="s">
         <v>60</v>
@@ -9511,13 +9511,13 @@
         <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C59" t="s">
+        <v>465</v>
+      </c>
+      <c r="D59" t="s">
         <v>466</v>
-      </c>
-      <c r="D59" t="s">
-        <v>467</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
@@ -9531,13 +9531,13 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C60" t="s">
+        <v>467</v>
+      </c>
+      <c r="D60" t="s">
         <v>468</v>
-      </c>
-      <c r="D60" t="s">
-        <v>469</v>
       </c>
       <c r="E60" t="s">
         <v>15</v>
@@ -9551,13 +9551,13 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C61" t="s">
+        <v>467</v>
+      </c>
+      <c r="D61" t="s">
         <v>468</v>
-      </c>
-      <c r="D61" t="s">
-        <v>469</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
@@ -9571,13 +9571,13 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C62" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D62" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E62" t="s">
         <v>15</v>
@@ -9591,13 +9591,13 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C63" t="s">
+        <v>467</v>
+      </c>
+      <c r="D63" t="s">
         <v>468</v>
-      </c>
-      <c r="D63" t="s">
-        <v>469</v>
       </c>
       <c r="E63" t="s">
         <v>15</v>
@@ -9611,13 +9611,13 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C64" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D64" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E64" t="s">
         <v>15</v>
@@ -9631,13 +9631,13 @@
         <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C65" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D65" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
@@ -9651,13 +9651,13 @@
         <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D66" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
@@ -9671,13 +9671,13 @@
         <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C67" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D67" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E67" t="s">
         <v>15</v>
@@ -9691,13 +9691,13 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C68" t="s">
+        <v>467</v>
+      </c>
+      <c r="D68" t="s">
         <v>468</v>
-      </c>
-      <c r="D68" t="s">
-        <v>469</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -9711,13 +9711,13 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C69" t="s">
+        <v>467</v>
+      </c>
+      <c r="D69" t="s">
         <v>468</v>
-      </c>
-      <c r="D69" t="s">
-        <v>469</v>
       </c>
       <c r="E69" t="s">
         <v>15</v>
@@ -9731,13 +9731,13 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C70" t="s">
+        <v>474</v>
+      </c>
+      <c r="D70" t="s">
         <v>475</v>
-      </c>
-      <c r="D70" t="s">
-        <v>476</v>
       </c>
       <c r="E70" t="s">
         <v>72</v>
@@ -9751,13 +9751,13 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C71" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D71" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E71" t="s">
         <v>72</v>
@@ -9771,13 +9771,13 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C72" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D72" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E72" t="s">
         <v>72</v>
@@ -9791,7 +9791,7 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -9811,13 +9811,13 @@
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C74" t="s">
+        <v>478</v>
+      </c>
+      <c r="D74" t="s">
         <v>479</v>
-      </c>
-      <c r="D74" t="s">
-        <v>480</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -9831,13 +9831,13 @@
         <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C75" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D75" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -9851,13 +9851,13 @@
         <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C76" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
@@ -9871,13 +9871,13 @@
         <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C77" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D77" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
@@ -9891,13 +9891,13 @@
         <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C78" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D78" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -9911,13 +9911,13 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C79" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D79" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
@@ -9931,13 +9931,13 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C80" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D80" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
@@ -9951,13 +9951,13 @@
         <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C81" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D81" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
@@ -9971,13 +9971,13 @@
         <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C82" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D82" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
@@ -9991,13 +9991,13 @@
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C83" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D83" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
@@ -10011,13 +10011,13 @@
         <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C84" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D84" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
@@ -10031,13 +10031,13 @@
         <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C85" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D85" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
@@ -10051,13 +10051,13 @@
         <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C86" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D86" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -10071,13 +10071,13 @@
         <v>34</v>
       </c>
       <c r="B87" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C87" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D87" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -10091,13 +10091,13 @@
         <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C88" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D88" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -10111,19 +10111,19 @@
         <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C89" t="s">
+        <v>491</v>
+      </c>
+      <c r="D89" t="s">
         <v>492</v>
       </c>
-      <c r="D89" t="s">
-        <v>493</v>
-      </c>
       <c r="E89" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F89" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -10131,19 +10131,19 @@
         <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C90" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D90" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E90" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F90" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -10151,13 +10151,13 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C91" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D91" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E91" t="s">
         <v>2</v>
@@ -10171,13 +10171,13 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C92" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D92" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E92" t="s">
         <v>2</v>
@@ -10191,13 +10191,13 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C93" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D93" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E93" t="s">
         <v>2</v>
@@ -10211,19 +10211,19 @@
         <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C94" t="s">
+        <v>497</v>
+      </c>
+      <c r="D94" t="s">
         <v>498</v>
       </c>
-      <c r="D94" t="s">
-        <v>499</v>
-      </c>
       <c r="E94" t="s">
         <v>248</v>
       </c>
       <c r="F94" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -10231,19 +10231,19 @@
         <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C95" t="s">
+        <v>499</v>
+      </c>
+      <c r="D95" t="s">
         <v>500</v>
       </c>
-      <c r="D95" t="s">
-        <v>501</v>
-      </c>
       <c r="E95" t="s">
         <v>248</v>
       </c>
       <c r="F95" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -10251,19 +10251,19 @@
         <v>141</v>
       </c>
       <c r="B96" t="s">
+        <v>501</v>
+      </c>
+      <c r="C96" t="s">
         <v>502</v>
       </c>
-      <c r="C96" t="s">
-        <v>503</v>
-      </c>
       <c r="D96" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E96" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F96" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -10271,19 +10271,19 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C97" t="s">
+        <v>503</v>
+      </c>
+      <c r="D97" t="s">
         <v>504</v>
       </c>
-      <c r="D97" t="s">
-        <v>505</v>
-      </c>
       <c r="E97" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F97" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -10291,13 +10291,13 @@
         <v>55</v>
       </c>
       <c r="B98" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C98" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D98" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E98" t="s">
         <v>53</v>
@@ -10311,13 +10311,13 @@
         <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D99" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E99" t="s">
         <v>53</v>
@@ -10331,13 +10331,13 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C100" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D100" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E100" t="s">
         <v>53</v>
@@ -10351,7 +10351,7 @@
         <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>248</v>
       </c>
       <c r="F101" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -10371,10 +10371,10 @@
         <v>123</v>
       </c>
       <c r="B102" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C102" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -10383,7 +10383,7 @@
         <v>248</v>
       </c>
       <c r="F102" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -10391,10 +10391,10 @@
         <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C103" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -10403,7 +10403,7 @@
         <v>248</v>
       </c>
       <c r="F103" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -10411,19 +10411,19 @@
         <v>86</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C104" t="s">
+        <v>510</v>
+      </c>
+      <c r="D104" t="s">
         <v>511</v>
       </c>
-      <c r="D104" t="s">
-        <v>512</v>
-      </c>
       <c r="E104" t="s">
         <v>248</v>
       </c>
       <c r="F104" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -10431,10 +10431,10 @@
         <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C105" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>248</v>
       </c>
       <c r="F105" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -10451,10 +10451,10 @@
         <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C106" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -10463,7 +10463,7 @@
         <v>248</v>
       </c>
       <c r="F106" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -10471,7 +10471,7 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -10483,7 +10483,7 @@
         <v>248</v>
       </c>
       <c r="F107" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -10491,7 +10491,7 @@
         <v>66</v>
       </c>
       <c r="B108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -10503,7 +10503,7 @@
         <v>248</v>
       </c>
       <c r="F108" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -10511,7 +10511,7 @@
         <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -10523,7 +10523,7 @@
         <v>248</v>
       </c>
       <c r="F109" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -10531,10 +10531,10 @@
         <v>87</v>
       </c>
       <c r="B110" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C110" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -10543,7 +10543,7 @@
         <v>93</v>
       </c>
       <c r="F110" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -10551,7 +10551,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -10560,10 +10560,10 @@
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F111" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -10571,7 +10571,7 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>248</v>
       </c>
       <c r="F112" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -10591,7 +10591,7 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>248</v>
       </c>
       <c r="F113" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -10611,10 +10611,10 @@
         <v>54</v>
       </c>
       <c r="B114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C114" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -10623,7 +10623,7 @@
         <v>248</v>
       </c>
       <c r="F114" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -10631,7 +10631,7 @@
         <v>88</v>
       </c>
       <c r="B115" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>248</v>
       </c>
       <c r="F115" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -10651,13 +10651,13 @@
         <v>98</v>
       </c>
       <c r="B116" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C116" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D116" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E116" t="s">
         <v>249</v>
@@ -10671,13 +10671,13 @@
         <v>99</v>
       </c>
       <c r="B117" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C117" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D117" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E117" t="s">
         <v>249</v>
@@ -10691,19 +10691,19 @@
         <v>91</v>
       </c>
       <c r="B118" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C118" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D118" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E118" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F118" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -10711,10 +10711,10 @@
         <v>243</v>
       </c>
       <c r="B119" t="s">
+        <v>518</v>
+      </c>
+      <c r="C119" t="s">
         <v>519</v>
-      </c>
-      <c r="C119" t="s">
-        <v>520</v>
       </c>
       <c r="E119" t="s">
         <v>248</v>
@@ -10728,7 +10728,7 @@
         <v>244</v>
       </c>
       <c r="B120" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E120" t="s">
         <v>248</v>
@@ -10742,10 +10742,10 @@
         <v>176</v>
       </c>
       <c r="B121" t="s">
+        <v>521</v>
+      </c>
+      <c r="C121" t="s">
         <v>522</v>
-      </c>
-      <c r="C121" t="s">
-        <v>523</v>
       </c>
       <c r="E121" t="s">
         <v>60</v>
@@ -10759,10 +10759,10 @@
         <v>177</v>
       </c>
       <c r="B122" t="s">
+        <v>523</v>
+      </c>
+      <c r="C122" t="s">
         <v>524</v>
-      </c>
-      <c r="C122" t="s">
-        <v>525</v>
       </c>
       <c r="E122" t="s">
         <v>60</v>
@@ -10776,16 +10776,16 @@
         <v>192</v>
       </c>
       <c r="B123" t="s">
+        <v>525</v>
+      </c>
+      <c r="C123" t="s">
         <v>526</v>
       </c>
-      <c r="C123" t="s">
-        <v>527</v>
-      </c>
       <c r="E123" t="s">
         <v>248</v>
       </c>
       <c r="F123" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -10793,16 +10793,16 @@
         <v>193</v>
       </c>
       <c r="B124" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C124" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E124" t="s">
         <v>248</v>
       </c>
       <c r="F124" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -10810,10 +10810,10 @@
         <v>194</v>
       </c>
       <c r="B125" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C125" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E125" t="s">
         <v>2</v>
@@ -10827,16 +10827,16 @@
         <v>208</v>
       </c>
       <c r="B126" t="s">
+        <v>529</v>
+      </c>
+      <c r="C126" t="s">
         <v>530</v>
       </c>
-      <c r="C126" t="s">
-        <v>531</v>
-      </c>
       <c r="E126" t="s">
         <v>248</v>
       </c>
       <c r="F126" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -10844,16 +10844,16 @@
         <v>209</v>
       </c>
       <c r="B127" t="s">
+        <v>531</v>
+      </c>
+      <c r="C127" t="s">
         <v>532</v>
       </c>
-      <c r="C127" t="s">
-        <v>533</v>
-      </c>
       <c r="E127" t="s">
         <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -10861,16 +10861,16 @@
         <v>210</v>
       </c>
       <c r="B128" t="s">
+        <v>533</v>
+      </c>
+      <c r="C128" t="s">
         <v>534</v>
       </c>
-      <c r="C128" t="s">
-        <v>535</v>
-      </c>
       <c r="E128" t="s">
         <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -10878,16 +10878,16 @@
         <v>211</v>
       </c>
       <c r="B129" t="s">
+        <v>535</v>
+      </c>
+      <c r="C129" t="s">
         <v>536</v>
       </c>
-      <c r="C129" t="s">
-        <v>537</v>
-      </c>
       <c r="E129" t="s">
         <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -10895,16 +10895,16 @@
         <v>212</v>
       </c>
       <c r="B130" t="s">
+        <v>537</v>
+      </c>
+      <c r="C130" t="s">
         <v>538</v>
       </c>
-      <c r="C130" t="s">
-        <v>539</v>
-      </c>
       <c r="E130" t="s">
         <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -10912,16 +10912,16 @@
         <v>213</v>
       </c>
       <c r="B131" t="s">
+        <v>539</v>
+      </c>
+      <c r="C131" t="s">
         <v>540</v>
       </c>
-      <c r="C131" t="s">
-        <v>541</v>
-      </c>
       <c r="E131" t="s">
         <v>248</v>
       </c>
       <c r="F131" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -10929,16 +10929,16 @@
         <v>214</v>
       </c>
       <c r="B132" t="s">
+        <v>541</v>
+      </c>
+      <c r="C132" t="s">
         <v>542</v>
       </c>
-      <c r="C132" t="s">
-        <v>543</v>
-      </c>
       <c r="E132" t="s">
         <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -10946,13 +10946,13 @@
         <v>215</v>
       </c>
       <c r="B133" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E133" t="s">
         <v>248</v>
       </c>
       <c r="F133" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -10960,16 +10960,16 @@
         <v>216</v>
       </c>
       <c r="B134" t="s">
+        <v>544</v>
+      </c>
+      <c r="C134" t="s">
         <v>545</v>
       </c>
-      <c r="C134" t="s">
-        <v>546</v>
-      </c>
       <c r="E134" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F134" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -10977,13 +10977,13 @@
         <v>217</v>
       </c>
       <c r="B135" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E135" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F135" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -10991,7 +10991,7 @@
         <v>218</v>
       </c>
       <c r="B136" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E136" t="s">
         <v>46</v>
@@ -11005,10 +11005,10 @@
         <v>219</v>
       </c>
       <c r="B137" t="s">
+        <v>548</v>
+      </c>
+      <c r="C137" t="s">
         <v>549</v>
-      </c>
-      <c r="C137" t="s">
-        <v>550</v>
       </c>
       <c r="E137" t="s">
         <v>248</v>
@@ -11022,13 +11022,13 @@
         <v>220</v>
       </c>
       <c r="B138" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E138" t="s">
         <v>248</v>
       </c>
       <c r="F138" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -11036,13 +11036,13 @@
         <v>221</v>
       </c>
       <c r="B139" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E139" t="s">
         <v>248</v>
       </c>
       <c r="F139" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -11050,13 +11050,13 @@
         <v>222</v>
       </c>
       <c r="B140" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E140" t="s">
         <v>248</v>
       </c>
       <c r="F140" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -11064,13 +11064,13 @@
         <v>223</v>
       </c>
       <c r="B141" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E141" t="s">
         <v>248</v>
       </c>
       <c r="F141" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -11078,13 +11078,13 @@
         <v>224</v>
       </c>
       <c r="B142" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E142" t="s">
         <v>248</v>
       </c>
       <c r="F142" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -11092,16 +11092,16 @@
         <v>226</v>
       </c>
       <c r="B143" t="s">
+        <v>555</v>
+      </c>
+      <c r="C143" t="s">
         <v>556</v>
       </c>
-      <c r="C143" t="s">
-        <v>557</v>
-      </c>
       <c r="E143" t="s">
         <v>248</v>
       </c>
       <c r="F143" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -11109,13 +11109,13 @@
         <v>231</v>
       </c>
       <c r="B144" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E144" t="s">
         <v>248</v>
       </c>
       <c r="F144" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -11123,13 +11123,13 @@
         <v>232</v>
       </c>
       <c r="B145" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E145" t="s">
         <v>248</v>
       </c>
       <c r="F145" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -11137,7 +11137,7 @@
         <v>233</v>
       </c>
       <c r="B146" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E146" t="s">
         <v>62</v>
@@ -11151,13 +11151,13 @@
         <v>234</v>
       </c>
       <c r="B147" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E147" t="s">
         <v>248</v>
       </c>
       <c r="F147" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -11165,16 +11165,16 @@
         <v>235</v>
       </c>
       <c r="B148" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C148" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E148" t="s">
         <v>248</v>
       </c>
       <c r="F148" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -11182,13 +11182,13 @@
         <v>236</v>
       </c>
       <c r="B149" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E149" t="s">
         <v>248</v>
       </c>
       <c r="F149" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -11196,13 +11196,13 @@
         <v>237</v>
       </c>
       <c r="B150" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E150" t="s">
         <v>248</v>
       </c>
       <c r="F150" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -11210,13 +11210,13 @@
         <v>238</v>
       </c>
       <c r="B151" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E151" t="s">
         <v>248</v>
       </c>
       <c r="F151" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -11224,13 +11224,13 @@
         <v>239</v>
       </c>
       <c r="B152" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E152" t="s">
         <v>248</v>
       </c>
       <c r="F152" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -11238,13 +11238,13 @@
         <v>240</v>
       </c>
       <c r="B153" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E153" t="s">
         <v>248</v>
       </c>
       <c r="F153" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -11252,13 +11252,13 @@
         <v>241</v>
       </c>
       <c r="B154" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E154" t="s">
         <v>248</v>
       </c>
       <c r="F154" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -11266,13 +11266,13 @@
         <v>139</v>
       </c>
       <c r="B155" t="s">
+        <v>568</v>
+      </c>
+      <c r="C155" t="s">
         <v>569</v>
       </c>
-      <c r="C155" t="s">
-        <v>570</v>
-      </c>
       <c r="D155" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E155" t="s">
         <v>46</v>
@@ -11286,13 +11286,13 @@
         <v>142</v>
       </c>
       <c r="B156" t="s">
+        <v>570</v>
+      </c>
+      <c r="C156" t="s">
         <v>571</v>
       </c>
-      <c r="C156" t="s">
-        <v>572</v>
-      </c>
       <c r="D156" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E156" t="s">
         <v>46</v>
@@ -11306,13 +11306,13 @@
         <v>143</v>
       </c>
       <c r="B157" t="s">
+        <v>572</v>
+      </c>
+      <c r="C157" t="s">
         <v>573</v>
       </c>
-      <c r="C157" t="s">
-        <v>574</v>
-      </c>
       <c r="D157" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E157" t="s">
         <v>46</v>
@@ -11326,13 +11326,13 @@
         <v>163</v>
       </c>
       <c r="B158" t="s">
+        <v>574</v>
+      </c>
+      <c r="C158" t="s">
         <v>575</v>
       </c>
-      <c r="C158" t="s">
-        <v>576</v>
-      </c>
       <c r="D158" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E158" t="s">
         <v>53</v>
@@ -11346,13 +11346,13 @@
         <v>181</v>
       </c>
       <c r="B159" t="s">
+        <v>576</v>
+      </c>
+      <c r="C159" t="s">
         <v>577</v>
       </c>
-      <c r="C159" t="s">
-        <v>578</v>
-      </c>
       <c r="D159" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E159" t="s">
         <v>53</v>
@@ -11366,13 +11366,13 @@
         <v>182</v>
       </c>
       <c r="B160" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C160" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D160" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E160" t="s">
         <v>53</v>
@@ -11386,13 +11386,13 @@
         <v>184</v>
       </c>
       <c r="B161" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C161" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D161" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E161" t="s">
         <v>5</v>
@@ -11406,13 +11406,13 @@
         <v>185</v>
       </c>
       <c r="B162" t="s">
+        <v>580</v>
+      </c>
+      <c r="C162" t="s">
         <v>581</v>
       </c>
-      <c r="C162" t="s">
-        <v>582</v>
-      </c>
       <c r="D162" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E162" t="s">
         <v>46</v>
@@ -11426,19 +11426,19 @@
         <v>191</v>
       </c>
       <c r="B163" t="s">
+        <v>582</v>
+      </c>
+      <c r="C163" t="s">
         <v>583</v>
       </c>
-      <c r="C163" t="s">
-        <v>584</v>
-      </c>
       <c r="D163" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E163" t="s">
         <v>248</v>
       </c>
       <c r="F163" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -11446,13 +11446,13 @@
         <v>197</v>
       </c>
       <c r="B164" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C164" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D164" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
@@ -11466,13 +11466,13 @@
         <v>225</v>
       </c>
       <c r="B165" t="s">
+        <v>585</v>
+      </c>
+      <c r="C165" t="s">
         <v>586</v>
       </c>
-      <c r="C165" t="s">
-        <v>587</v>
-      </c>
       <c r="D165" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E165" t="s">
         <v>46</v>
@@ -11486,13 +11486,13 @@
         <v>149</v>
       </c>
       <c r="B166" t="s">
+        <v>587</v>
+      </c>
+      <c r="C166" t="s">
         <v>588</v>
       </c>
-      <c r="C166" t="s">
-        <v>589</v>
-      </c>
       <c r="D166" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E166" t="s">
         <v>53</v>
@@ -11506,13 +11506,13 @@
         <v>150</v>
       </c>
       <c r="B167" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C167" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D167" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E167" t="s">
         <v>53</v>
@@ -11526,13 +11526,13 @@
         <v>159</v>
       </c>
       <c r="B168" t="s">
+        <v>590</v>
+      </c>
+      <c r="C168" t="s">
         <v>591</v>
       </c>
-      <c r="C168" t="s">
-        <v>592</v>
-      </c>
       <c r="D168" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E168" t="s">
         <v>53</v>
@@ -11546,13 +11546,13 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
+        <v>592</v>
+      </c>
+      <c r="C169" t="s">
         <v>593</v>
       </c>
-      <c r="C169" t="s">
-        <v>594</v>
-      </c>
       <c r="D169" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E169" t="s">
         <v>53</v>
@@ -11566,13 +11566,13 @@
         <v>175</v>
       </c>
       <c r="B170" t="s">
+        <v>594</v>
+      </c>
+      <c r="C170" t="s">
         <v>595</v>
       </c>
-      <c r="C170" t="s">
-        <v>596</v>
-      </c>
       <c r="D170" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E170" t="s">
         <v>53</v>
@@ -11586,13 +11586,13 @@
         <v>136</v>
       </c>
       <c r="B171" t="s">
+        <v>596</v>
+      </c>
+      <c r="C171" t="s">
         <v>597</v>
       </c>
-      <c r="C171" t="s">
-        <v>598</v>
-      </c>
       <c r="D171" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E171" t="s">
         <v>5</v>
@@ -11606,13 +11606,13 @@
         <v>160</v>
       </c>
       <c r="B172" t="s">
+        <v>598</v>
+      </c>
+      <c r="C172" t="s">
         <v>599</v>
       </c>
-      <c r="C172" t="s">
-        <v>600</v>
-      </c>
       <c r="D172" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E172" t="s">
         <v>5</v>
@@ -11626,13 +11626,13 @@
         <v>186</v>
       </c>
       <c r="B173" t="s">
+        <v>600</v>
+      </c>
+      <c r="C173" t="s">
         <v>601</v>
       </c>
-      <c r="C173" t="s">
-        <v>602</v>
-      </c>
       <c r="D173" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E173" t="s">
         <v>5</v>
@@ -11646,13 +11646,13 @@
         <v>195</v>
       </c>
       <c r="B174" t="s">
+        <v>602</v>
+      </c>
+      <c r="C174" t="s">
         <v>603</v>
       </c>
-      <c r="C174" t="s">
-        <v>604</v>
-      </c>
       <c r="D174" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
@@ -11666,13 +11666,13 @@
         <v>196</v>
       </c>
       <c r="B175" t="s">
+        <v>604</v>
+      </c>
+      <c r="C175" t="s">
         <v>605</v>
       </c>
-      <c r="C175" t="s">
-        <v>606</v>
-      </c>
       <c r="D175" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E175" t="s">
         <v>5</v>
@@ -11686,13 +11686,13 @@
         <v>203</v>
       </c>
       <c r="B176" t="s">
+        <v>606</v>
+      </c>
+      <c r="C176" t="s">
         <v>607</v>
       </c>
-      <c r="C176" t="s">
-        <v>608</v>
-      </c>
       <c r="D176" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
@@ -11706,13 +11706,13 @@
         <v>204</v>
       </c>
       <c r="B177" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C177" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D177" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E177" t="s">
         <v>5</v>
@@ -11726,13 +11726,13 @@
         <v>207</v>
       </c>
       <c r="B178" t="s">
+        <v>609</v>
+      </c>
+      <c r="C178" t="s">
         <v>610</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>611</v>
-      </c>
-      <c r="D178" t="s">
-        <v>612</v>
       </c>
       <c r="E178" t="s">
         <v>249</v>
@@ -11746,13 +11746,13 @@
         <v>229</v>
       </c>
       <c r="B179" t="s">
+        <v>612</v>
+      </c>
+      <c r="C179" t="s">
         <v>613</v>
       </c>
-      <c r="C179" t="s">
-        <v>614</v>
-      </c>
       <c r="D179" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E179" t="s">
         <v>62</v>
@@ -11766,13 +11766,13 @@
         <v>230</v>
       </c>
       <c r="B180" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C180" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D180" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E180" t="s">
         <v>62</v>
@@ -11786,13 +11786,13 @@
         <v>147</v>
       </c>
       <c r="B181" t="s">
+        <v>615</v>
+      </c>
+      <c r="C181" t="s">
         <v>616</v>
       </c>
-      <c r="C181" t="s">
-        <v>617</v>
-      </c>
       <c r="D181" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E181" t="s">
         <v>60</v>
@@ -11806,13 +11806,13 @@
         <v>168</v>
       </c>
       <c r="B182" t="s">
+        <v>617</v>
+      </c>
+      <c r="C182" t="s">
         <v>618</v>
       </c>
-      <c r="C182" t="s">
-        <v>619</v>
-      </c>
       <c r="D182" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E182" t="s">
         <v>248</v>
@@ -11826,19 +11826,19 @@
         <v>162</v>
       </c>
       <c r="B183" t="s">
+        <v>619</v>
+      </c>
+      <c r="C183" t="s">
         <v>620</v>
       </c>
-      <c r="C183" t="s">
-        <v>621</v>
-      </c>
       <c r="D183" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E183" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F183" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -11846,13 +11846,13 @@
         <v>140</v>
       </c>
       <c r="B184" t="s">
+        <v>621</v>
+      </c>
+      <c r="C184" t="s">
         <v>622</v>
       </c>
-      <c r="C184" t="s">
-        <v>623</v>
-      </c>
       <c r="D184" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
@@ -11866,13 +11866,13 @@
         <v>178</v>
       </c>
       <c r="B185" t="s">
+        <v>623</v>
+      </c>
+      <c r="C185" t="s">
         <v>624</v>
       </c>
-      <c r="C185" t="s">
-        <v>625</v>
-      </c>
       <c r="D185" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E185" t="s">
         <v>2</v>
@@ -11886,13 +11886,13 @@
         <v>179</v>
       </c>
       <c r="B186" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C186" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D186" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E186" t="s">
         <v>8</v>
@@ -11906,13 +11906,13 @@
         <v>180</v>
       </c>
       <c r="B187" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C187" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D187" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E187" t="s">
         <v>2</v>
@@ -11926,19 +11926,19 @@
         <v>198</v>
       </c>
       <c r="B188" t="s">
+        <v>627</v>
+      </c>
+      <c r="C188" t="s">
         <v>628</v>
       </c>
-      <c r="C188" t="s">
-        <v>629</v>
-      </c>
       <c r="D188" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E188" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F188" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -11946,19 +11946,19 @@
         <v>148</v>
       </c>
       <c r="B189" t="s">
+        <v>629</v>
+      </c>
+      <c r="C189" t="s">
         <v>630</v>
       </c>
-      <c r="C189" t="s">
-        <v>631</v>
-      </c>
       <c r="D189" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E189" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F189" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -11966,13 +11966,13 @@
         <v>151</v>
       </c>
       <c r="B190" t="s">
+        <v>631</v>
+      </c>
+      <c r="C190" t="s">
         <v>632</v>
       </c>
-      <c r="C190" t="s">
-        <v>633</v>
-      </c>
       <c r="D190" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E190" t="s">
         <v>2</v>
@@ -11986,13 +11986,13 @@
         <v>157</v>
       </c>
       <c r="B191" t="s">
+        <v>633</v>
+      </c>
+      <c r="C191" t="s">
         <v>634</v>
       </c>
-      <c r="C191" t="s">
-        <v>635</v>
-      </c>
       <c r="D191" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E191" t="s">
         <v>2</v>
@@ -12006,13 +12006,13 @@
         <v>158</v>
       </c>
       <c r="B192" t="s">
+        <v>635</v>
+      </c>
+      <c r="C192" t="s">
         <v>636</v>
       </c>
-      <c r="C192" t="s">
-        <v>637</v>
-      </c>
       <c r="D192" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E192" t="s">
         <v>2</v>
@@ -12026,13 +12026,13 @@
         <v>202</v>
       </c>
       <c r="B193" t="s">
+        <v>637</v>
+      </c>
+      <c r="C193" t="s">
         <v>638</v>
       </c>
-      <c r="C193" t="s">
-        <v>639</v>
-      </c>
       <c r="D193" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E193" t="s">
         <v>2</v>
@@ -12046,13 +12046,13 @@
         <v>206</v>
       </c>
       <c r="B194" t="s">
+        <v>639</v>
+      </c>
+      <c r="C194" t="s">
         <v>640</v>
       </c>
-      <c r="C194" t="s">
-        <v>641</v>
-      </c>
       <c r="D194" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E194" t="s">
         <v>2</v>
@@ -12066,19 +12066,19 @@
         <v>146</v>
       </c>
       <c r="B195" t="s">
+        <v>641</v>
+      </c>
+      <c r="C195" t="s">
         <v>642</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>643</v>
       </c>
-      <c r="D195" t="s">
-        <v>644</v>
-      </c>
       <c r="E195" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -12086,19 +12086,19 @@
         <v>152</v>
       </c>
       <c r="B196" t="s">
+        <v>644</v>
+      </c>
+      <c r="C196" t="s">
         <v>645</v>
       </c>
-      <c r="C196" t="s">
-        <v>646</v>
-      </c>
       <c r="D196" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E196" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F196" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -12106,19 +12106,19 @@
         <v>153</v>
       </c>
       <c r="B197" t="s">
+        <v>646</v>
+      </c>
+      <c r="C197" t="s">
         <v>647</v>
       </c>
-      <c r="C197" t="s">
-        <v>648</v>
-      </c>
       <c r="D197" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E197" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F197" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -12126,19 +12126,19 @@
         <v>165</v>
       </c>
       <c r="B198" t="s">
+        <v>648</v>
+      </c>
+      <c r="C198" t="s">
         <v>649</v>
       </c>
-      <c r="C198" t="s">
-        <v>650</v>
-      </c>
       <c r="D198" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E198" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F198" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -12146,19 +12146,19 @@
         <v>172</v>
       </c>
       <c r="B199" t="s">
+        <v>650</v>
+      </c>
+      <c r="C199" t="s">
         <v>651</v>
       </c>
-      <c r="C199" t="s">
-        <v>652</v>
-      </c>
       <c r="D199" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F199" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -12166,19 +12166,19 @@
         <v>187</v>
       </c>
       <c r="B200" t="s">
+        <v>652</v>
+      </c>
+      <c r="C200" t="s">
         <v>653</v>
       </c>
-      <c r="C200" t="s">
-        <v>654</v>
-      </c>
       <c r="D200" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E200" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F200" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -12186,19 +12186,19 @@
         <v>189</v>
       </c>
       <c r="B201" t="s">
+        <v>654</v>
+      </c>
+      <c r="C201" t="s">
         <v>655</v>
       </c>
-      <c r="C201" t="s">
-        <v>656</v>
-      </c>
       <c r="D201" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E201" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F201" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -12206,19 +12206,19 @@
         <v>190</v>
       </c>
       <c r="B202" t="s">
+        <v>656</v>
+      </c>
+      <c r="C202" t="s">
         <v>657</v>
       </c>
-      <c r="C202" t="s">
-        <v>658</v>
-      </c>
       <c r="D202" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E202" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F202" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -12226,19 +12226,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
+        <v>658</v>
+      </c>
+      <c r="C203" t="s">
         <v>659</v>
       </c>
-      <c r="C203" t="s">
-        <v>660</v>
-      </c>
       <c r="D203" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E203" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
       <c r="F203" t="s">
-        <v>251</v>
+        <v>718</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -12246,13 +12246,13 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
+        <v>660</v>
+      </c>
+      <c r="C204" t="s">
         <v>661</v>
       </c>
-      <c r="C204" t="s">
-        <v>662</v>
-      </c>
       <c r="D204" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E204" t="s">
         <v>15</v>
@@ -12266,19 +12266,19 @@
         <v>133</v>
       </c>
       <c r="B205" t="s">
+        <v>662</v>
+      </c>
+      <c r="C205" t="s">
         <v>663</v>
       </c>
-      <c r="C205" t="s">
-        <v>664</v>
-      </c>
       <c r="D205" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E205" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F205" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -12286,13 +12286,13 @@
         <v>127</v>
       </c>
       <c r="B206" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C206" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D206" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E206" t="s">
         <v>248</v>
@@ -12306,13 +12306,13 @@
         <v>51</v>
       </c>
       <c r="B207" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C207" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D207" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E207" t="s">
         <v>248</v>
@@ -12326,19 +12326,19 @@
         <v>170</v>
       </c>
       <c r="B208" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C208" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D208" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E208" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F208" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -12346,19 +12346,19 @@
         <v>174</v>
       </c>
       <c r="B209" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C209" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D209" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E209" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F209" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -12366,19 +12366,19 @@
         <v>130</v>
       </c>
       <c r="B210" t="s">
+        <v>668</v>
+      </c>
+      <c r="C210" t="s">
         <v>669</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>670</v>
       </c>
-      <c r="D210" t="s">
-        <v>671</v>
-      </c>
       <c r="E210" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F210" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -12386,19 +12386,19 @@
         <v>131</v>
       </c>
       <c r="B211" t="s">
+        <v>671</v>
+      </c>
+      <c r="C211" t="s">
         <v>672</v>
       </c>
-      <c r="C211" t="s">
-        <v>673</v>
-      </c>
       <c r="D211" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E211" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F211" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -12406,19 +12406,19 @@
         <v>132</v>
       </c>
       <c r="B212" t="s">
+        <v>673</v>
+      </c>
+      <c r="C212" t="s">
         <v>674</v>
       </c>
-      <c r="C212" t="s">
-        <v>675</v>
-      </c>
       <c r="D212" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E212" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F212" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -12426,19 +12426,19 @@
         <v>134</v>
       </c>
       <c r="B213" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C213" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D213" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E213" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F213" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -12446,19 +12446,19 @@
         <v>135</v>
       </c>
       <c r="B214" t="s">
+        <v>676</v>
+      </c>
+      <c r="C214" t="s">
         <v>677</v>
       </c>
-      <c r="C214" t="s">
-        <v>678</v>
-      </c>
       <c r="D214" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E214" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F214" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -12466,19 +12466,19 @@
         <v>137</v>
       </c>
       <c r="B215" t="s">
+        <v>678</v>
+      </c>
+      <c r="C215" t="s">
         <v>679</v>
       </c>
-      <c r="C215" t="s">
-        <v>680</v>
-      </c>
       <c r="D215" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E215" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F215" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -12486,19 +12486,19 @@
         <v>138</v>
       </c>
       <c r="B216" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C216" t="s">
+        <v>669</v>
+      </c>
+      <c r="D216" t="s">
         <v>670</v>
       </c>
-      <c r="D216" t="s">
-        <v>671</v>
-      </c>
       <c r="E216" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F216" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -12506,19 +12506,19 @@
         <v>155</v>
       </c>
       <c r="B217" t="s">
+        <v>681</v>
+      </c>
+      <c r="C217" t="s">
         <v>682</v>
       </c>
-      <c r="C217" t="s">
-        <v>683</v>
-      </c>
       <c r="D217" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E217" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F217" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -12526,19 +12526,19 @@
         <v>156</v>
       </c>
       <c r="B218" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C218" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D218" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E218" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F218" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -12546,19 +12546,19 @@
         <v>171</v>
       </c>
       <c r="B219" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C219" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D219" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E219" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F219" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -12566,13 +12566,13 @@
         <v>144</v>
       </c>
       <c r="B220" t="s">
+        <v>685</v>
+      </c>
+      <c r="C220" t="s">
         <v>686</v>
       </c>
-      <c r="C220" t="s">
-        <v>687</v>
-      </c>
       <c r="D220" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E220" t="s">
         <v>15</v>
@@ -12586,13 +12586,13 @@
         <v>145</v>
       </c>
       <c r="B221" t="s">
+        <v>687</v>
+      </c>
+      <c r="C221" t="s">
         <v>688</v>
       </c>
-      <c r="C221" t="s">
-        <v>689</v>
-      </c>
       <c r="D221" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E221" t="s">
         <v>15</v>
@@ -12606,13 +12606,13 @@
         <v>167</v>
       </c>
       <c r="B222" t="s">
+        <v>689</v>
+      </c>
+      <c r="C222" t="s">
         <v>690</v>
       </c>
-      <c r="C222" t="s">
-        <v>691</v>
-      </c>
       <c r="D222" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -12626,13 +12626,13 @@
         <v>188</v>
       </c>
       <c r="B223" t="s">
+        <v>691</v>
+      </c>
+      <c r="C223" t="s">
         <v>692</v>
       </c>
-      <c r="C223" t="s">
-        <v>693</v>
-      </c>
       <c r="D223" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E223" t="s">
         <v>15</v>
@@ -12646,19 +12646,19 @@
         <v>200</v>
       </c>
       <c r="B224" t="s">
+        <v>693</v>
+      </c>
+      <c r="C224" t="s">
         <v>694</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>695</v>
       </c>
-      <c r="D224" t="s">
-        <v>696</v>
-      </c>
       <c r="E224" t="s">
         <v>248</v>
       </c>
       <c r="F224" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -12666,13 +12666,13 @@
         <v>164</v>
       </c>
       <c r="B225" t="s">
+        <v>696</v>
+      </c>
+      <c r="C225" t="s">
         <v>697</v>
       </c>
-      <c r="C225" t="s">
-        <v>698</v>
-      </c>
       <c r="D225" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E225" t="s">
         <v>249</v>
@@ -12686,13 +12686,13 @@
         <v>166</v>
       </c>
       <c r="B226" t="s">
+        <v>698</v>
+      </c>
+      <c r="C226" t="s">
         <v>699</v>
       </c>
-      <c r="C226" t="s">
-        <v>700</v>
-      </c>
       <c r="D226" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E226" t="s">
         <v>247</v>
@@ -12706,13 +12706,13 @@
         <v>173</v>
       </c>
       <c r="B227" t="s">
+        <v>700</v>
+      </c>
+      <c r="C227" t="s">
         <v>701</v>
       </c>
-      <c r="C227" t="s">
-        <v>702</v>
-      </c>
       <c r="D227" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E227" t="s">
         <v>247</v>
@@ -12726,13 +12726,13 @@
         <v>242</v>
       </c>
       <c r="B228" t="s">
+        <v>702</v>
+      </c>
+      <c r="C228" t="s">
         <v>703</v>
       </c>
-      <c r="C228" t="s">
-        <v>704</v>
-      </c>
       <c r="D228" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E228" t="s">
         <v>46</v>
@@ -12746,19 +12746,19 @@
         <v>154</v>
       </c>
       <c r="B229" t="s">
+        <v>704</v>
+      </c>
+      <c r="C229" t="s">
         <v>705</v>
       </c>
-      <c r="C229" t="s">
-        <v>706</v>
-      </c>
       <c r="D229" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E229" t="s">
         <v>248</v>
       </c>
       <c r="F229" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -12766,19 +12766,19 @@
         <v>183</v>
       </c>
       <c r="B230" t="s">
+        <v>706</v>
+      </c>
+      <c r="C230" t="s">
         <v>707</v>
       </c>
-      <c r="C230" t="s">
-        <v>708</v>
-      </c>
       <c r="D230" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E230" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F230" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -12786,19 +12786,19 @@
         <v>199</v>
       </c>
       <c r="B231" t="s">
+        <v>708</v>
+      </c>
+      <c r="C231" t="s">
         <v>709</v>
       </c>
-      <c r="C231" t="s">
-        <v>710</v>
-      </c>
       <c r="D231" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E231" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F231" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -12806,13 +12806,13 @@
         <v>227</v>
       </c>
       <c r="B232" t="s">
+        <v>710</v>
+      </c>
+      <c r="C232" t="s">
         <v>711</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>712</v>
-      </c>
-      <c r="D232" t="s">
-        <v>713</v>
       </c>
       <c r="E232" t="s">
         <v>62</v>
@@ -12826,13 +12826,13 @@
         <v>228</v>
       </c>
       <c r="B233" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C233" t="s">
+        <v>711</v>
+      </c>
+      <c r="D233" t="s">
         <v>712</v>
-      </c>
-      <c r="D233" t="s">
-        <v>713</v>
       </c>
       <c r="E233" t="s">
         <v>62</v>
